--- a/1 Day Project 독서록_테이블명세_데이터(2020-01-09)-.xlsx
+++ b/1 Day Project 독서록_테이블명세_데이터(2020-01-09)-.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\505-10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\workspace\ReadBooks-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882C0FA9-6D31-4440-9C42-D282B523802E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="2"/>
+    <workbookView xWindow="11025" yWindow="3525" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="203">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -661,18 +662,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>독서시작시각</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>독서시간</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자(10,3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>한줄소감</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -689,14 +678,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>RB_STIME</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>RB_RTIME</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>RB_SUBJECT</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -705,10 +686,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>NUMBER(10,3)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>nVARCHAR2(20)</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -754,13 +731,25 @@
   </si>
   <si>
     <t>RB_TEXT</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성일자</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB_REGIDTAE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>RB_WRITER</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
@@ -1469,6 +1458,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1520,16 +1515,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1556,7 +1545,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1589,7 +1578,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 3" descr="\\googleads.g.doubleclick.net\pagead\viewthroughconversion\921362370\?value=0&amp;guid=ON&amp;script=0"/>
+        <xdr:cNvPr id="2" name="Picture 3" descr="\\googleads.g.doubleclick.net\pagead\viewthroughconversion\921362370\?value=0&amp;guid=ON&amp;script=0">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1928,7 +1923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2589,20 +2584,20 @@
       <c r="C1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
       <c r="I1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="52">
         <v>43769</v>
       </c>
-      <c r="K1" s="51"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="22" t="s">
         <v>51</v>
       </c>
@@ -2614,18 +2609,18 @@
       <c r="C2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="54">
         <v>43839</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="24" t="s">
         <v>46</v>
       </c>
@@ -2637,36 +2632,36 @@
       <c r="C3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -3013,7 +3008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3674,20 +3669,20 @@
       <c r="C1" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
       <c r="I1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="52">
         <v>43769</v>
       </c>
-      <c r="K1" s="51"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="22" t="s">
         <v>51</v>
       </c>
@@ -3699,18 +3694,18 @@
       <c r="C2" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="54">
         <v>43839</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="24" t="s">
         <v>47</v>
       </c>
@@ -3722,36 +3717,36 @@
       <c r="C3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4086,11 +4081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4747,20 +4742,20 @@
       <c r="C1" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
       <c r="I1" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="50">
+      <c r="J1" s="52">
         <v>43769</v>
       </c>
-      <c r="K1" s="51"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="22" t="s">
         <v>51</v>
       </c>
@@ -4772,18 +4767,18 @@
       <c r="C2" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="52">
+      <c r="J2" s="54">
         <v>43839</v>
       </c>
-      <c r="K2" s="53"/>
+      <c r="K2" s="55"/>
       <c r="L2" s="24" t="s">
         <v>55</v>
       </c>
@@ -4795,36 +4790,36 @@
       <c r="C3" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="51"/>
       <c r="I3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="55"/>
+      <c r="K3" s="57"/>
       <c r="L3" s="24"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="42"/>
     </row>
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
@@ -4887,7 +4882,7 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4895,29 +4890,29 @@
         <v>2</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="F7" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="G7" s="15" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="L7" s="38"/>
     </row>
@@ -4951,13 +4946,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>36</v>
@@ -4974,16 +4969,16 @@
         <v>5</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>184</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
@@ -4997,16 +4992,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>187</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
@@ -5017,19 +5012,19 @@
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>195</v>
+        <v>16</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
@@ -5040,19 +5035,19 @@
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>186</v>
+        <v>53</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>16</v>
+        <v>150</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
@@ -5227,7 +5222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5278,14 +5273,14 @@
       <c r="D2" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="57" t="str">
+      <c r="E2" s="40" t="str">
         <f>TEXT(H2,"yyyy-MM-dd")</f>
         <v>2019-04-15</v>
       </c>
       <c r="F2" s="31">
         <v>15000</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="39"/>
       <c r="H2" s="30">
         <v>43570</v>
       </c>
@@ -5303,14 +5298,14 @@
       <c r="D3" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="57" t="str">
+      <c r="E3" s="40" t="str">
         <f t="shared" ref="E3:E30" si="0">TEXT(H3,"yyyy-MM-dd")</f>
         <v>2019-04-11</v>
       </c>
       <c r="F3" s="31">
         <v>13000</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="30">
         <v>43566</v>
       </c>
@@ -5328,14 +5323,14 @@
       <c r="D4" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="57" t="str">
+      <c r="E4" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-04-10</v>
       </c>
       <c r="F4" s="31">
         <v>14000</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="39"/>
       <c r="H4" s="30">
         <v>43565</v>
       </c>
@@ -5353,14 +5348,14 @@
       <c r="D5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E5" s="57" t="str">
+      <c r="E5" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-04-10</v>
       </c>
       <c r="F5" s="31">
         <v>14000</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="39"/>
       <c r="H5" s="30">
         <v>43565</v>
       </c>
@@ -5378,14 +5373,14 @@
       <c r="D6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="57" t="str">
+      <c r="E6" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-04-10</v>
       </c>
       <c r="F6" s="31">
         <v>15000</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="30">
         <v>43565</v>
       </c>
@@ -5403,14 +5398,14 @@
       <c r="D7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="57" t="str">
+      <c r="E7" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-04-10</v>
       </c>
       <c r="F7" s="31">
         <v>25000</v>
       </c>
-      <c r="G7" s="56"/>
+      <c r="G7" s="39"/>
       <c r="H7" s="30">
         <v>43565</v>
       </c>
@@ -5428,14 +5423,14 @@
       <c r="D8" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="57" t="str">
+      <c r="E8" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-03-31</v>
       </c>
       <c r="F8" s="31">
         <v>22000</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="30">
         <v>43555</v>
       </c>
@@ -5453,14 +5448,14 @@
       <c r="D9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="57" t="str">
+      <c r="E9" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-03-30</v>
       </c>
       <c r="F9" s="31">
         <v>13000</v>
       </c>
-      <c r="G9" s="56"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="30">
         <v>43554</v>
       </c>
@@ -5478,14 +5473,14 @@
       <c r="D10" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="57" t="str">
+      <c r="E10" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-03-25</v>
       </c>
       <c r="F10" s="31">
         <v>15000</v>
       </c>
-      <c r="G10" s="56"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="30">
         <v>43549</v>
       </c>
@@ -5503,14 +5498,14 @@
       <c r="D11" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="57" t="str">
+      <c r="E11" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-03-20</v>
       </c>
       <c r="F11" s="31">
         <v>13800</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="30">
         <v>43544</v>
       </c>
@@ -5528,14 +5523,14 @@
       <c r="D12" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="57" t="str">
+      <c r="E12" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-03-15</v>
       </c>
       <c r="F12" s="31">
         <v>13800</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="30">
         <v>43539</v>
       </c>
@@ -5553,14 +5548,14 @@
       <c r="D13" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="57" t="str">
+      <c r="E13" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-02-27</v>
       </c>
       <c r="F13" s="31">
         <v>16800</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="30">
         <v>43523</v>
       </c>
@@ -5578,14 +5573,14 @@
       <c r="D14" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="57" t="str">
+      <c r="E14" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-02-26</v>
       </c>
       <c r="F14" s="31">
         <v>16000</v>
       </c>
-      <c r="G14" s="56"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="30">
         <v>43522</v>
       </c>
@@ -5603,14 +5598,14 @@
       <c r="D15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="57" t="str">
+      <c r="E15" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-02-20</v>
       </c>
       <c r="F15" s="31">
         <v>16000</v>
       </c>
-      <c r="G15" s="56"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="30">
         <v>43516</v>
       </c>
@@ -5628,14 +5623,14 @@
       <c r="D16" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E16" s="57" t="str">
+      <c r="E16" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-02-15</v>
       </c>
       <c r="F16" s="31">
         <v>14000</v>
       </c>
-      <c r="G16" s="56"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="30">
         <v>43511</v>
       </c>
@@ -5653,14 +5648,14 @@
       <c r="D17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E17" s="57" t="str">
+      <c r="E17" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-01-30</v>
       </c>
       <c r="F17" s="31">
         <v>18000</v>
       </c>
-      <c r="G17" s="56"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="30">
         <v>43495</v>
       </c>
@@ -5678,14 +5673,14 @@
       <c r="D18" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="57" t="str">
+      <c r="E18" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-01-29</v>
       </c>
       <c r="F18" s="31">
         <v>13500</v>
       </c>
-      <c r="G18" s="56"/>
+      <c r="G18" s="39"/>
       <c r="H18" s="30">
         <v>43494</v>
       </c>
@@ -5703,14 +5698,14 @@
       <c r="D19" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="57" t="str">
+      <c r="E19" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-01-28</v>
       </c>
       <c r="F19" s="31">
         <v>13800</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="30">
         <v>43493</v>
       </c>
@@ -5728,14 +5723,14 @@
       <c r="D20" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E20" s="57" t="str">
+      <c r="E20" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-01-18</v>
       </c>
       <c r="F20" s="31">
         <v>15000</v>
       </c>
-      <c r="G20" s="56"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="30">
         <v>43483</v>
       </c>
@@ -5753,14 +5748,14 @@
       <c r="D21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="57" t="str">
+      <c r="E21" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2019-01-10</v>
       </c>
       <c r="F21" s="31">
         <v>15800</v>
       </c>
-      <c r="G21" s="56"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="30">
         <v>43475</v>
       </c>
@@ -5778,14 +5773,14 @@
       <c r="D22" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="57" t="str">
+      <c r="E22" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-12-25</v>
       </c>
       <c r="F22" s="31">
         <v>13500</v>
       </c>
-      <c r="G22" s="56"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="30">
         <v>43459</v>
       </c>
@@ -5803,14 +5798,14 @@
       <c r="D23" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="57" t="str">
+      <c r="E23" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-12-20</v>
       </c>
       <c r="F23" s="31">
         <v>14800</v>
       </c>
-      <c r="G23" s="56"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="30">
         <v>43454</v>
       </c>
@@ -5828,14 +5823,14 @@
       <c r="D24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="57" t="str">
+      <c r="E24" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-12-15</v>
       </c>
       <c r="F24" s="31">
         <v>13500</v>
       </c>
-      <c r="G24" s="56"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="30">
         <v>43449</v>
       </c>
@@ -5853,14 +5848,14 @@
       <c r="D25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="57" t="str">
+      <c r="E25" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-29</v>
       </c>
       <c r="F25" s="31">
         <v>14000</v>
       </c>
-      <c r="G25" s="56"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="30">
         <v>43433</v>
       </c>
@@ -5878,14 +5873,14 @@
       <c r="D26" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="57" t="str">
+      <c r="E26" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-24</v>
       </c>
       <c r="F26" s="31">
         <v>16500</v>
       </c>
-      <c r="G26" s="56"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="30">
         <v>43428</v>
       </c>
@@ -5903,14 +5898,14 @@
       <c r="D27" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E27" s="57" t="str">
+      <c r="E27" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-23</v>
       </c>
       <c r="F27" s="31">
         <v>13500</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="30">
         <v>43427</v>
       </c>
@@ -5928,14 +5923,14 @@
       <c r="D28" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="57" t="str">
+      <c r="E28" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-11-15</v>
       </c>
       <c r="F28" s="31">
         <v>14800</v>
       </c>
-      <c r="G28" s="56"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="30">
         <v>43419</v>
       </c>
@@ -5953,14 +5948,14 @@
       <c r="D29" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="57" t="str">
+      <c r="E29" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-10-31</v>
       </c>
       <c r="F29" s="31">
         <v>14000</v>
       </c>
-      <c r="G29" s="56"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="30">
         <v>43404</v>
       </c>
@@ -5978,14 +5973,14 @@
       <c r="D30" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="57" t="str">
+      <c r="E30" s="40" t="str">
         <f t="shared" si="0"/>
         <v>2018-10-30</v>
       </c>
       <c r="F30" s="35">
         <v>20000</v>
       </c>
-      <c r="G30" s="56"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="34">
         <v>43403</v>
       </c>
